--- a/targets/wine.xlsx
+++ b/targets/wine.xlsx
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6619</v>
+        <v>0.7154</v>
       </c>
       <c r="C2">
-        <v>0.1461</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6582</v>
+        <v>0.7234</v>
       </c>
       <c r="C3">
-        <v>0.0532</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.7264</v>
+        <v>0.7824</v>
       </c>
       <c r="C4">
-        <v>0.1181</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.7015</v>
+        <v>0.6611</v>
       </c>
       <c r="C5">
-        <v>0.2659</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -509,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3601</v>
+        <v>0.449</v>
       </c>
       <c r="C6">
-        <v>0.07829999999999999</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.3175</v>
+        <v>0.4416</v>
       </c>
       <c r="C7">
-        <v>0.1078</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.6582</v>
+        <v>0.7234</v>
       </c>
       <c r="C8">
-        <v>0.0532</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>40.3</v>
+        <v>18.3</v>
       </c>
       <c r="C9">
-        <v>127.4398</v>
+        <v>38.8388</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>369.5</v>
+        <v>276.5</v>
       </c>
       <c r="C10">
-        <v>178.5343</v>
+        <v>31.8756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>70.2</v>
+        <v>185.2</v>
       </c>
       <c r="C11">
-        <v>148.0554</v>
+        <v>56.0492</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>56.9</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>123.1164</v>
+        <v>31.686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -586,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>269.6</v>
+        <v>207.5</v>
       </c>
       <c r="C13">
-        <v>222.3227</v>
+        <v>69.23269999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -597,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>134.2303</v>
+        <v>49.3536</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -608,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>169</v>
+        <v>182.4</v>
       </c>
       <c r="C15">
-        <v>147.227</v>
+        <v>63.4143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -619,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>100.6</v>
+        <v>25.1</v>
       </c>
       <c r="C16">
-        <v>78.715</v>
+        <v>11.3475</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -630,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.9215</v>
+        <v>0.9257</v>
       </c>
       <c r="C17">
-        <v>0.2484</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -641,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.1642</v>
+        <v>0.4211</v>
       </c>
       <c r="C18">
-        <v>0.3461</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -652,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.8566</v>
+        <v>0.866</v>
       </c>
       <c r="C19">
-        <v>0.2701</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -663,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.1321</v>
+        <v>0.4463</v>
       </c>
       <c r="C20">
-        <v>0.2925</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -685,10 +685,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.2647</v>
+        <v>0.0512</v>
       </c>
       <c r="C22">
-        <v>0.07290000000000001</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="23" spans="1:3">
